--- a/biology/Zoologie/Homoneura/Homoneura.xlsx
+++ b/biology/Zoologie/Homoneura/Homoneura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Homoneura est un genre d'insectes diptères brachycères de la famille des Lauxaniidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 H. abnormis Gao &amp; Yang, 2004
@@ -522,7 +536,7 @@
 H. arizonensis Miller, 1977
 H. bakeri Miller, 1977
 H. bergenstammi Czerny, 1932
-H. biconcava Shi, Wang &amp; Yang, 2011[1]
+H. biconcava Shi, Wang &amp; Yang, 2011
 H. birdi Miller, 1977
 H. bispina (Loew, 1861)
 H. bistriata (Kertész, 1915)
@@ -541,18 +555,18 @@
 H. cornuta Sasakawa, 2001
 H. crickettae Miller, 1977
 H. curva Miller, 1977
-H. denticuligera Shi, Wang &amp; Yang, 2011[1]
+H. denticuligera Shi, Wang &amp; Yang, 2011
 H. dilecta (Róndani, 1868)
-H. disciformis Shi, Wang &amp; Yang, 2011[1]
+H. disciformis Shi, Wang &amp; Yang, 2011
 H. disjuncta (Johnson, 1914)
-H. elliptica Shi, Wang &amp; Yang, 2011[1]
+H. elliptica Shi, Wang &amp; Yang, 2011
 H. ericpoli Carles-Tolra, 1993
 H. flabella Miller, 1977
 H. flavida Shi &amp; Yang, 2009
 H. fratercula (Malloch, 1920)
 H. fraterna Loew, 1861)
 H. fuscibasis (Malloch, 1920)
-H. guangdongica Shi, Wang &amp; Yang, 2011[1]
+H. guangdongica Shi, Wang &amp; Yang, 2011
 H. harti (Malloch, 1914)
 H. hospes Allen, 1989
 H. houghii (Coquillett, 1898)
@@ -571,7 +585,7 @@
 H. licina Séguy, 1941
 H. limnea (Becker, 1895)
 H. littoralis (Malloch, 1915)
-H. longicomata Shi, Wang &amp; Yang, 2011[1]
+H. longicomata Shi, Wang &amp; Yang, 2011
 H. longispina Gao &amp; Yang, 2004
 H. mallochi Miller, 1977
 H. media Miller, 1977
@@ -579,8 +593,8 @@
 H. melanderi (Johnson, 1914)
 H. minor (Becker, 1895)
 H. modesta (Loew, 1857)
-H. nebulosa Sasakawa, 2011[1]
-H. nigrimarginata Shi, Wang &amp; Yang, 2011[1]
+H. nebulosa Sasakawa, 2011
+H. nigrimarginata Shi, Wang &amp; Yang, 2011
 H. nigritarsis Shi &amp; Yang, 2009
 H. notata (Fallén, 1820)
 H. nubila (Melander, 1913)
@@ -595,8 +609,8 @@
 H. prisca (de Sasakawa, 2009)
 H. picta (de Meijere, 1904)
 H. psammophila Miller, 1977
-H. pufujii Shi, Wang &amp; Yang, 2011[1]
-H. quadrifera Shi, Wang &amp; Yang, 2011[1]
+H. pufujii Shi, Wang &amp; Yang, 2011
+H. quadrifera Shi, Wang &amp; Yang, 2011
 H. remmi Papp, 1978
 H. semicircularis Shi &amp; Yang, 2009
 H. serrata Gao &amp; Yang, 2002,
